--- a/002661_克明面业/克明面业.xlsx
+++ b/002661_克明面业/克明面业.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="2"/>
+    <workbookView xWindow="1280" yWindow="800" windowWidth="25600" windowHeight="14780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="124">
   <si>
     <t>年份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -941,10 +941,6 @@
     <rPh sb="6" eb="7">
       <t>sun'shi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经营活动产生的现金流量净额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1212,12 +1208,72 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>平均增长</t>
-    <rPh sb="0" eb="1">
-      <t>ping'jun</t>
+    <t>近5年符合增长</t>
+    <rPh sb="0" eb="1">
+      <t>jin</t>
     </rPh>
     <rPh sb="2" eb="3">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
       <t>zeng'zhang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合增长率</t>
+    <rPh sb="0" eb="1">
+      <t>fu'he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zeng'zhang'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股本</t>
+    <rPh sb="0" eb="1">
+      <t>gu'ben</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标价格</t>
+    <rPh sb="0" eb="1">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'ge</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期涨幅</t>
+    <rPh sb="0" eb="1">
+      <t>yu'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang'fu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金流折扣</t>
+    <rPh sb="0" eb="1">
+      <t>xian'jin'liu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhe'kou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'ben</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1289,7 +1345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1324,6 +1380,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4807,10 +4864,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4827,8 +4884,8 @@
     <col min="11" max="11" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -4863,9 +4920,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="9"/>
@@ -4894,7 +4951,7 @@
         <v>185909492.16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -4932,177 +4989,205 @@
         <v>0.64995938892236416</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="2">
-        <f>(K3-D3)/D3/8</f>
-        <v>0.22860038280202238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+        <f>(K3/D3)^(1/7)-1</f>
+        <v>0.16015141311706582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="2">
+        <f>(K3/G3)^(1/4)-1</f>
+        <v>0.29649067094244552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <f>K3*F9</f>
+        <v>148727593.72800002</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="16">
+        <v>20</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="16">
+        <v>2019</v>
+      </c>
+      <c r="C12" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D12" s="16">
+        <v>2021</v>
+      </c>
+      <c r="E12" s="16">
+        <v>2022</v>
+      </c>
+      <c r="F12" s="16">
+        <v>2023</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
-        <f>K3*0.8</f>
-        <v>148727593.72800002</v>
-      </c>
-      <c r="B8" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="C8" s="16">
-        <v>15</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="18">
-        <v>0.18</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0.18</v>
-      </c>
-      <c r="D10" s="18">
-        <v>0.18</v>
-      </c>
-      <c r="E10" s="18">
-        <v>0.18</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0.18</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="16">
-        <v>2019</v>
-      </c>
-      <c r="C11" s="16">
-        <v>2020</v>
-      </c>
-      <c r="D11" s="16">
-        <v>2021</v>
-      </c>
-      <c r="E11" s="16">
-        <v>2022</v>
-      </c>
-      <c r="F11" s="16">
-        <v>2023</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16" t="s">
+      <c r="B13" s="19">
+        <f>A9*(1+D9)</f>
+        <v>171036732.7872</v>
+      </c>
+      <c r="C13" s="19">
+        <f>B13*(1+D9)</f>
+        <v>196692242.70527998</v>
+      </c>
+      <c r="D13" s="19">
+        <f>C13*(1+D9)</f>
+        <v>226196079.11107194</v>
+      </c>
+      <c r="E13" s="19">
+        <f>D13*(1+D9)</f>
+        <v>260125490.97773272</v>
+      </c>
+      <c r="F13" s="19">
+        <f>E13*(1+D9)</f>
+        <v>299144314.62439263</v>
+      </c>
+      <c r="G13" s="19">
+        <f>F13*C9</f>
+        <v>5982886292.4878521</v>
+      </c>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="17">
+        <f>B13/(1+B9)</f>
+        <v>162892126.46399999</v>
+      </c>
+      <c r="C14" s="17">
+        <f>C13/(1+B9)^2</f>
+        <v>178405662.31771424</v>
+      </c>
+      <c r="D14" s="17">
+        <f>D13/(1+B9)^3</f>
+        <v>195396677.77654415</v>
+      </c>
+      <c r="E14" s="17">
+        <f>E13/(1+B9)^4</f>
+        <v>214005885.18383408</v>
+      </c>
+      <c r="F14" s="17">
+        <f>F13/(1+B9)^5</f>
+        <v>234387398.05848491</v>
+      </c>
+      <c r="G14" s="17">
+        <f>G13/(1+B9)^4</f>
+        <v>4922135359.2281837</v>
+      </c>
+      <c r="H14" s="17">
+        <f>SUM(B14:G14)</f>
+        <v>5907223109.0287609</v>
+      </c>
+      <c r="I14" s="20">
+        <v>331930298</v>
+      </c>
+      <c r="J14">
+        <f>H14/I14</f>
+        <v>17.796577006142297</v>
+      </c>
+      <c r="K14">
+        <v>13.47</v>
+      </c>
+      <c r="L14" s="2">
+        <f>J14/K14</f>
+        <v>1.3212009655636447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="19">
-        <f>A8*(1+D8)</f>
-        <v>171036732.7872</v>
-      </c>
-      <c r="C12" s="19">
-        <f>B12*(1+D8)</f>
-        <v>196692242.70527998</v>
-      </c>
-      <c r="D12" s="19">
-        <f>C12*(1+D8)</f>
-        <v>226196079.11107194</v>
-      </c>
-      <c r="E12" s="19">
-        <f>D12*(1+D8)</f>
-        <v>260125490.97773272</v>
-      </c>
-      <c r="F12" s="19">
-        <f>E12*(1+D8)</f>
-        <v>299144314.62439263</v>
-      </c>
-      <c r="G12" s="19">
-        <f>F12*C8</f>
-        <v>4487164719.3658895</v>
-      </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="17">
-        <f>B12/(1+B8)</f>
-        <v>162892126.46399999</v>
-      </c>
-      <c r="C13" s="17">
-        <f>C12/(1+B8)^2</f>
-        <v>178405662.31771424</v>
-      </c>
-      <c r="D13" s="17">
-        <f>D12/(1+B8)^3</f>
-        <v>195396677.77654415</v>
-      </c>
-      <c r="E13" s="17">
-        <f>E12/(1+B8)^4</f>
-        <v>214005885.18383408</v>
-      </c>
-      <c r="F13" s="17">
-        <f>F12/(1+B8)^5</f>
-        <v>234387398.05848491</v>
-      </c>
-      <c r="G13" s="17">
-        <f>G12/(1+B8)^4</f>
-        <v>3691601519.4211378</v>
-      </c>
-      <c r="H13" s="17">
-        <f>SUM(B13:G13)</f>
-        <v>4676689269.221715</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="17">
-        <f>H13*E8</f>
-        <v>3273682488.4552002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K16" s="9"/>
+      <c r="H15" s="17">
+        <f>H14*E9</f>
+        <v>4135056176.3201323</v>
+      </c>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K17" s="9"/>
@@ -5124,6 +5209,9 @@
     </row>
     <row r="23" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5236,7 +5324,7 @@
         <v>90</v>
       </c>
       <c r="U3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V3" t="s">
         <v>91</v>
@@ -5248,7 +5336,7 @@
         <v>93</v>
       </c>
       <c r="Y3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -6110,22 +6198,22 @@
       <c r="AB15" s="9"/>
     </row>
     <row r="16" spans="1:29" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
+      <c r="A16" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
